--- a/techniqo/data_new_ticker/GODREJAGRO.xlsx
+++ b/techniqo/data_new_ticker/GODREJAGRO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G722"/>
+  <dimension ref="A1:G724"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25656,6 +25656,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>509</v>
+      </c>
+      <c r="C723" t="n">
+        <v>534.5</v>
+      </c>
+      <c r="D723" t="n">
+        <v>500.9</v>
+      </c>
+      <c r="E723" t="n">
+        <v>528.2</v>
+      </c>
+      <c r="F723" t="n">
+        <v>542119</v>
+      </c>
+      <c r="G723" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>536</v>
+      </c>
+      <c r="C724" t="n">
+        <v>545</v>
+      </c>
+      <c r="D724" t="n">
+        <v>525.1</v>
+      </c>
+      <c r="E724" t="n">
+        <v>529.2</v>
+      </c>
+      <c r="F724" t="n">
+        <v>273685</v>
+      </c>
+      <c r="G724" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/GODREJAGRO.xlsx
+++ b/techniqo/data_new_ticker/GODREJAGRO.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G724"/>
+  <dimension ref="A1:G726"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25706,6 +25706,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>528.7</v>
+      </c>
+      <c r="C725" t="n">
+        <v>528.7</v>
+      </c>
+      <c r="D725" t="n">
+        <v>517.6</v>
+      </c>
+      <c r="E725" t="n">
+        <v>521.6</v>
+      </c>
+      <c r="F725" t="n">
+        <v>98211</v>
+      </c>
+      <c r="G725" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>522.6</v>
+      </c>
+      <c r="C726" t="n">
+        <v>534.4</v>
+      </c>
+      <c r="D726" t="n">
+        <v>520.6</v>
+      </c>
+      <c r="E726" t="n">
+        <v>529.15</v>
+      </c>
+      <c r="F726" t="n">
+        <v>103348</v>
+      </c>
+      <c r="G726" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
